--- a/数据整理/stocks/A股/上证主板/600436-片仔癀.xlsx
+++ b/数据整理/stocks/A股/上证主板/600436-片仔癀.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5685,4 +5686,3744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>256.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21.0769</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>140.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4459</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0768</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010854</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富沪深300基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5421</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4411</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2581</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0380</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0303</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161026</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9607</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>54.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8613</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7605</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6842</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5194</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4370</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4245</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3827</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000117</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发轮动配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>54.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000477</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发主题领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010869</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富稳健欣享一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002384</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰鸿祥服务升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009475</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇丰晋信慧盈混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>49.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000512</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010855</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富沪深300基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001801</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>52.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.45</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002165</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>52.37</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>32.57</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>32.57</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600436-片仔癀.xlsx
+++ b/数据整理/stocks/A股/上证主板/600436-片仔癀.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9426,4 +9427,3894 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>244.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.2942</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>141.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0303</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>169.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.2937</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>108.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1854</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6600</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4182</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5260</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3869</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0744</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0156</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9104</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8452</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8094</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7246</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7027</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6991</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4811</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4418</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4204</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4099</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3585</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3412</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2935</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000117</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发轮动配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000477</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发主题领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002384</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>九泰鸿祥服务升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009475</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇丰晋信慧盈混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>36.75</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001291</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化多策略股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>77.10</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600436-片仔癀.xlsx
+++ b/数据整理/stocks/A股/上证主板/600436-片仔癀.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13317,4 +13318,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>97</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>76</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600436-片仔癀.xlsx
+++ b/数据整理/stocks/A股/上证主板/600436-片仔癀.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13326,7 +13327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13337,17 +13338,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13357,14 +13378,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>101</v>
-      </c>
-      <c r="D2" t="n">
-        <v>59.15</v>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>434.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.2931</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -13373,14 +13416,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>97</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51.62</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>227.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>18.4966</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -13389,14 +13454,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>59</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.19</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>297.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.8337</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -13405,13 +13492,6341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>218.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.7444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.4358</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>136.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.9697</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>104.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.4381</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.5984</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1136</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.8516</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5855</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1128</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9382</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8325</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7059</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5324</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3616</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1248</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9095</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9015</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8951</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8902</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8781</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8067</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002959</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富盈泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7881</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7872</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7529</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7301</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7229</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7076</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>36.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>67.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7003</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6044</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5923</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5561</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5396</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5290</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5158</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4698</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4691</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4583</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4549</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3942</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3911</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010439</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富稳健汇盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3503</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3400</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3170</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3112</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010869</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富稳健欣享一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000117</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发轮动配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2441</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000477</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发主题领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>59.78</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>67.12</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>730002</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002384</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>九泰鸿祥服务升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010998</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博道消费智航股票型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>166802</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>浙商沪深 300 指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009260</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007471</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博道叁佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009244</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国寿安保稳丰6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>003955</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>国泰民丰回报定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007470</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博道叁佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000512</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国泰沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>工银瑞信中证消费服务领先ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001059</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中金绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>71.85</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007570</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009245</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>国寿安保稳丰6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>370023</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>上投摩根中证消费服务指数</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>008768</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009261</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>008769</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>167</v>
+      </c>
+      <c r="D2" t="n">
+        <v>127.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>101</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>97</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>76</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>28.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600436-片仔癀.xlsx
+++ b/数据整理/stocks/A股/上证主板/600436-片仔癀.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19725,7 +19726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19736,17 +19737,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19756,14 +19777,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>167</v>
-      </c>
-      <c r="D2" t="n">
-        <v>127.55</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>173.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.6781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -19772,14 +19815,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>101</v>
-      </c>
-      <c r="D3" t="n">
-        <v>59.15</v>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>174.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8180</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -19788,14 +19853,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>97</v>
-      </c>
-      <c r="D4" t="n">
-        <v>51.62</v>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>118.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8826</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -19804,14 +19891,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>59</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.19</v>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -19820,13 +19929,2751 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1770</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6195</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4799</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3778</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0993</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9885</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8797</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8502</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7697</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7515</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5088</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4997</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4846</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4589</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4147</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3954</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3813</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002959</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富盈泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2640</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000117</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发轮动配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2364</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2303</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000477</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发主题领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000512</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>73.34</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002063</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010144</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>167</v>
+      </c>
+      <c r="D3" t="n">
+        <v>127.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>101</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>97</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>59</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>76</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>28.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600436-片仔癀.xlsx
+++ b/数据整理/stocks/A股/上证主板/600436-片仔癀.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22556,7 +22557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22567,17 +22568,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -22587,14 +22608,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.95</v>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>710.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>29.2854</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -22603,14 +22646,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>167</v>
-      </c>
-      <c r="D3" t="n">
-        <v>127.55</v>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>384.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.8604</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -22619,14 +22684,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>101</v>
-      </c>
-      <c r="D4" t="n">
-        <v>59.15</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>197.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15.3902</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -22635,14 +22722,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>97</v>
-      </c>
-      <c r="D5" t="n">
-        <v>51.62</v>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>207.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.5634</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -22651,14 +22760,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>59</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.19</v>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.7529</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -22667,13 +22798,3974 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.4843</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.9106</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5485</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5485</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>61.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3489</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1155</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0336</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>35.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8212</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>60.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7866</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6966</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3134</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0208</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9445</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8837</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8317</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7929</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6905</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6889</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4461</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4284</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4244</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4183</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4162</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002959</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富盈泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3583</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3421</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>730002</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>910010</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>东方红新海混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001291</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化多策略股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>910026</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>68.80</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银瑞信中证消费服务领先ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>57.25</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>57.25</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>70.72</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007570</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>370023</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>上投摩根中证消费服务指数</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010144</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011725</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>68.80</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>106</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>167</v>
+      </c>
+      <c r="D4" t="n">
+        <v>127.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>101</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>97</v>
+      </c>
+      <c r="D6" t="n">
+        <v>51.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>59</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>76</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>28.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600436-片仔癀.xlsx
+++ b/数据整理/stocks/A股/上证主板/600436-片仔癀.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>117.29</v>
+        <v>44.72</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D3" t="n">
-        <v>51.95</v>
+        <v>117.29</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>127.55</v>
+        <v>51.95</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="D5" t="n">
-        <v>59.15</v>
+        <v>127.55</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D6" t="n">
-        <v>51.62</v>
+        <v>59.15</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D7" t="n">
-        <v>15.19</v>
+        <v>51.62</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>59</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>76</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>28.34</v>
       </c>
     </row>
@@ -600,6 +617,3254 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>334.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7648</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>279.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.9844</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>110.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.4253</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华富利精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9704</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9504</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0054</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7624</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6681</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6401</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6240</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5738</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5682</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5496</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4866</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4380</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4359</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4302</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4069</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3358</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002959</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富盈泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014651</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005626</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014417</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014652</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>72.17</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015497</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰紫金中证医药50指数A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>517990</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商中证沪港深500医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014416</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010144</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015498</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰紫金中证医药50指数C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4674,7 +7939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7504,7 +10769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13902,7 +17167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17792,7 +21057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21532,7 +24797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23830,7 +27095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
